--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>植物名称</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>增加动物经验</t>
+  </si>
+  <si>
+    <t>等级</t>
   </si>
   <si>
     <t>葫芦</t>
@@ -301,20 +304,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -322,6 +311,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -332,6 +335,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -350,31 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,132 +516,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,154 +634,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1108,13 +1108,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="49.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
@@ -1124,8 +1124,8 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1140,16 +1140,19 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -1157,10 +1160,13 @@
       <c r="E2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1174,10 +1180,13 @@
       <c r="E3" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1191,10 +1200,13 @@
       <c r="E4" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1208,10 +1220,13 @@
       <c r="E5" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1225,10 +1240,13 @@
       <c r="E6" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1242,10 +1260,13 @@
       <c r="E7" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1259,10 +1280,13 @@
       <c r="E8" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1276,10 +1300,13 @@
       <c r="E9" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1293,10 +1320,13 @@
       <c r="E10" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
+      <c r="F10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1310,10 +1340,13 @@
       <c r="E11" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" ht="15.75" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1327,10 +1360,13 @@
       <c r="E12" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" ht="15.75" spans="1:5">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
+      <c r="F12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -1344,10 +1380,13 @@
       <c r="E13" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
+      <c r="F13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1361,10 +1400,13 @@
       <c r="E14" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
+      <c r="F14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -1378,10 +1420,13 @@
       <c r="E15" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
+      <c r="F15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -1395,10 +1440,13 @@
       <c r="E16" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1412,10 +1460,13 @@
       <c r="E17" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
+      <c r="F17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -1429,10 +1480,13 @@
       <c r="E18" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
+      <c r="F18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -1446,10 +1500,13 @@
       <c r="E19" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
+      <c r="F19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -1463,10 +1520,13 @@
       <c r="E20" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
+      <c r="F20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -1480,10 +1540,13 @@
       <c r="E21" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>24</v>
+      <c r="F21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -1497,10 +1560,13 @@
       <c r="E22" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>25</v>
+      <c r="F22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -1514,10 +1580,13 @@
       <c r="E23" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
+      <c r="F23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -1531,10 +1600,13 @@
       <c r="E24" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>27</v>
+      <c r="F24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -1548,10 +1620,13 @@
       <c r="E25" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>28</v>
+      <c r="F25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -1565,10 +1640,13 @@
       <c r="E26" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>29</v>
+      <c r="F26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -1582,10 +1660,13 @@
       <c r="E27" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>30</v>
+      <c r="F27" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -1599,10 +1680,13 @@
       <c r="E28" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>31</v>
+      <c r="F28" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -1616,10 +1700,13 @@
       <c r="E29" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>32</v>
+      <c r="F29" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -1633,10 +1720,13 @@
       <c r="E30" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>33</v>
+      <c r="F30" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
@@ -1650,10 +1740,13 @@
       <c r="E31" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
@@ -1667,10 +1760,13 @@
       <c r="E32" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
@@ -1684,10 +1780,13 @@
       <c r="E33" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -1701,10 +1800,13 @@
       <c r="E34" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -1718,10 +1820,13 @@
       <c r="E35" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
@@ -1735,10 +1840,13 @@
       <c r="E36" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -1752,10 +1860,13 @@
       <c r="E37" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
@@ -1769,10 +1880,13 @@
       <c r="E38" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
@@ -1786,10 +1900,13 @@
       <c r="E39" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
@@ -1803,10 +1920,13 @@
       <c r="E40" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
@@ -1819,6 +1939,9 @@
       </c>
       <c r="E41" s="1">
         <v>59</v>
+      </c>
+      <c r="F41" s="1">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -304,6 +304,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -311,20 +325,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -335,6 +335,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -347,12 +365,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -377,31 +419,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,24 +485,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -449,73 +497,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="10770"/>
+    <workbookView windowWidth="21015" windowHeight="10770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>植物名称</t>
   </si>
@@ -149,6 +150,66 @@
   </si>
   <si>
     <t>千年老参</t>
+  </si>
+  <si>
+    <t>动物名称</t>
+  </si>
+  <si>
+    <t>动物类型id</t>
+  </si>
+  <si>
+    <t>增益系数</t>
+  </si>
+  <si>
+    <t>升级所需经验</t>
+  </si>
+  <si>
+    <t>牛</t>
+  </si>
+  <si>
+    <t>猪</t>
+  </si>
+  <si>
+    <t>羊</t>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>金鱼</t>
+  </si>
+  <si>
+    <t>带鱼</t>
+  </si>
+  <si>
+    <t>鲨鱼</t>
+  </si>
+  <si>
+    <t>白鲸</t>
+  </si>
+  <si>
+    <t>乌鸦</t>
+  </si>
+  <si>
+    <t>金丝雀</t>
+  </si>
+  <si>
+    <t>白鸽</t>
+  </si>
+  <si>
+    <t>大鹏</t>
+  </si>
+  <si>
+    <t>玄武</t>
+  </si>
+  <si>
+    <t>白虎</t>
+  </si>
+  <si>
+    <t>朱雀</t>
+  </si>
+  <si>
+    <t>青龙</t>
   </si>
 </sst>
 </file>
@@ -157,9 +218,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -776,7 +837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,6 +845,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1110,8 +1174,8 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1345,7 +1409,7 @@
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1">
@@ -1365,7 +1429,7 @@
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:6">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="1">
@@ -1943,6 +2007,536 @@
       <c r="F41" s="1">
         <v>40</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>101</v>
+      </c>
+      <c r="D3" s="1">
+        <v>101</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>102</v>
+      </c>
+      <c r="D4" s="1">
+        <v>102</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>103</v>
+      </c>
+      <c r="D5" s="1">
+        <v>103</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>104</v>
+      </c>
+      <c r="D6" s="1">
+        <v>104</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>105</v>
+      </c>
+      <c r="D7" s="1">
+        <v>105</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>106</v>
+      </c>
+      <c r="D8" s="1">
+        <v>106</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>107</v>
+      </c>
+      <c r="D9" s="1">
+        <v>107</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>108</v>
+      </c>
+      <c r="D10" s="1">
+        <v>108</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>109</v>
+      </c>
+      <c r="D11" s="1">
+        <v>109</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>110</v>
+      </c>
+      <c r="D12" s="1">
+        <v>110</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>111</v>
+      </c>
+      <c r="D13" s="1">
+        <v>111</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>112</v>
+      </c>
+      <c r="D14" s="1">
+        <v>112</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>113</v>
+      </c>
+      <c r="D15" s="1">
+        <v>113</v>
+      </c>
+      <c r="E15" s="1">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>114</v>
+      </c>
+      <c r="D16" s="1">
+        <v>114</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>115</v>
+      </c>
+      <c r="D17" s="1">
+        <v>115</v>
+      </c>
+      <c r="E17" s="1">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="10770" activeTab="1"/>
+    <workbookView windowWidth="21015" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,9 +218,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -837,7 +837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,9 +845,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1174,8 +1171,8 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1409,7 +1406,7 @@
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:6">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1">
@@ -1429,7 +1426,7 @@
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="1">
@@ -2019,8 +2016,8 @@
   <sheetPr/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2252,10 +2249,10 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>4</v>
       </c>
       <c r="C14" s="1">
@@ -2267,18 +2264,18 @@
       <c r="E14" s="1">
         <v>13</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>4</v>
       </c>
       <c r="C15" s="1">
@@ -2290,18 +2287,18 @@
       <c r="E15" s="1">
         <v>14</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>4</v>
       </c>
       <c r="C16" s="1">
@@ -2313,18 +2310,18 @@
       <c r="E16" s="1">
         <v>15</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>4</v>
       </c>
       <c r="C17" s="1">
@@ -2336,207 +2333,207 @@
       <c r="E17" s="1">
         <v>16</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -217,10 +217,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -250,9 +250,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +340,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -281,99 +356,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,6 +371,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -396,49 +396,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,133 +570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,41 +590,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,13 +614,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,6 +653,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -695,10 +695,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,133 +707,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1171,18 +1171,19 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="49.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -35,91 +36,91 @@
     <t>等级</t>
   </si>
   <si>
-    <t>葫芦</t>
-  </si>
-  <si>
-    <t>红辣椒</t>
-  </si>
-  <si>
-    <t>豌豆荚</t>
-  </si>
-  <si>
-    <t>草莓</t>
-  </si>
-  <si>
-    <t>茄子</t>
-  </si>
-  <si>
-    <t>椰子</t>
-  </si>
-  <si>
-    <t>香蕉</t>
-  </si>
-  <si>
-    <t>南瓜</t>
-  </si>
-  <si>
-    <t>土豆</t>
-  </si>
-  <si>
-    <t>榴莲</t>
-  </si>
-  <si>
-    <t>向日葵</t>
-  </si>
-  <si>
-    <t>梨子</t>
-  </si>
-  <si>
-    <t>白菜</t>
-  </si>
-  <si>
-    <t>西红柿</t>
-  </si>
-  <si>
-    <t>火龙果</t>
-  </si>
-  <si>
-    <t>菠萝</t>
-  </si>
-  <si>
-    <t>仙人掌</t>
-  </si>
-  <si>
-    <t>山药</t>
-  </si>
-  <si>
-    <t>殷桃</t>
-  </si>
-  <si>
-    <t>玉米</t>
-  </si>
-  <si>
-    <t>青椒</t>
-  </si>
-  <si>
-    <t>黄瓜</t>
-  </si>
-  <si>
-    <t>萝卜</t>
-  </si>
-  <si>
-    <t>包菜</t>
-  </si>
-  <si>
-    <t>蘑菇</t>
-  </si>
-  <si>
-    <t>橙子</t>
-  </si>
-  <si>
-    <t>西瓜</t>
-  </si>
-  <si>
-    <t>苹果</t>
-  </si>
-  <si>
-    <t>花菜</t>
+    <t>gourd</t>
+  </si>
+  <si>
+    <t>pepper</t>
+  </si>
+  <si>
+    <t>peapod</t>
+  </si>
+  <si>
+    <t>strawberry</t>
+  </si>
+  <si>
+    <t>eggplant</t>
+  </si>
+  <si>
+    <t>coconut</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>pumpkin</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>durian</t>
+  </si>
+  <si>
+    <t>sunflower</t>
+  </si>
+  <si>
+    <t>pear</t>
+  </si>
+  <si>
+    <t>cabbage</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>pitaya</t>
+  </si>
+  <si>
+    <t>pineapple</t>
+  </si>
+  <si>
+    <t>cactus</t>
+  </si>
+  <si>
+    <t>mangosteen</t>
+  </si>
+  <si>
+    <t>yintao</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>greenpepper</t>
+  </si>
+  <si>
+    <t>cucumber</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>bun</t>
+  </si>
+  <si>
+    <t>mushroom</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>watermelon</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>cauliflower</t>
   </si>
   <si>
     <t>恶魔捕蝇草</t>
@@ -140,7 +141,7 @@
     <t>千年仙竹</t>
   </si>
   <si>
-    <t>人生果</t>
+    <t>rsg</t>
   </si>
   <si>
     <t>蜻蜓仙花</t>
@@ -217,12 +218,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,14 +238,55 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF191F25"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,7 +300,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,17 +324,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,7 +347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,46 +361,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,21 +381,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -396,187 +391,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,11 +585,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,17 +639,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,32 +674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -695,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,137 +702,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,9 +840,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,7 +1164,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1406,8 +1398,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:6">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1">
@@ -1426,8 +1418,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:6">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="1">
@@ -2540,4 +2532,131 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="10215"/>
+    <workbookView windowWidth="21015" windowHeight="10215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>植物名称</t>
   </si>
@@ -163,6 +162,9 @@
   </si>
   <si>
     <t>升级所需经验</t>
+  </si>
+  <si>
+    <t>编号</t>
   </si>
   <si>
     <t>牛</t>
@@ -391,6 +393,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -415,6 +423,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -427,6 +441,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -457,18 +477,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -493,30 +531,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -535,43 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,133 +704,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,7 +1165,7 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -2009,8 +2011,8 @@
   <sheetPr/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2034,12 +2036,12 @@
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2056,7 +2058,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2073,7 +2075,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2090,7 +2092,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2107,7 +2109,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -2119,12 +2121,12 @@
         <v>104</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -2136,12 +2138,12 @@
         <v>105</v>
       </c>
       <c r="E7" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -2153,12 +2155,12 @@
         <v>106</v>
       </c>
       <c r="E8" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -2170,12 +2172,12 @@
         <v>107</v>
       </c>
       <c r="E9" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -2187,12 +2189,12 @@
         <v>108</v>
       </c>
       <c r="E10" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -2204,12 +2206,12 @@
         <v>109</v>
       </c>
       <c r="E11" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -2221,12 +2223,12 @@
         <v>110</v>
       </c>
       <c r="E12" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -2238,12 +2240,12 @@
         <v>111</v>
       </c>
       <c r="E13" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -2255,7 +2257,7 @@
         <v>112</v>
       </c>
       <c r="E14" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2266,7 +2268,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
@@ -2278,7 +2280,7 @@
         <v>113</v>
       </c>
       <c r="E15" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -2289,7 +2291,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
@@ -2301,7 +2303,7 @@
         <v>114</v>
       </c>
       <c r="E16" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2312,7 +2314,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -2324,7 +2326,7 @@
         <v>115</v>
       </c>
       <c r="E17" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2532,131 +2534,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="10215" activeTab="1"/>
+    <workbookView windowWidth="21015" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,8 +362,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,9 +377,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,6 +399,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -411,30 +435,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,48 +447,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -507,6 +507,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -519,7 +555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,48 +574,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,115 +704,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,13 +821,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1165,8 +1165,8 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2011,7 +2011,7 @@
   <sheetPr/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="10215"/>
+    <workbookView windowWidth="21015" windowHeight="10215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
     <t>动物类型id</t>
   </si>
   <si>
-    <t>增益系数</t>
+    <t>基本收益</t>
   </si>
   <si>
     <t>升级所需经验</t>
@@ -362,9 +362,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,8 +376,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,6 +399,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -411,30 +423,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,48 +447,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -507,13 +507,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,54 +574,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,142 +692,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1165,7 +1165,7 @@
   <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2011,8 +2011,8 @@
   <sheetPr/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2047,7 +2047,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -2064,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1">
         <v>101</v>
@@ -2081,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1">
         <v>102</v>
@@ -2098,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1">
         <v>103</v>
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1">
         <v>104</v>
@@ -2132,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1">
         <v>105</v>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1">
         <v>106</v>
@@ -2166,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1">
         <v>107</v>
@@ -2183,7 +2183,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1">
         <v>108</v>
@@ -2200,7 +2200,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1">
         <v>109</v>
@@ -2217,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1">
         <v>110</v>
@@ -2234,7 +2234,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1">
         <v>111</v>
@@ -2251,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1">
         <v>112</v>
@@ -2274,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="1">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1">
         <v>113</v>
@@ -2297,7 +2297,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1">
         <v>114</v>
@@ -2320,7 +2320,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="1">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1">
         <v>115</v>

--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="10215" activeTab="1"/>
+    <workbookView windowWidth="26085" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
-  <si>
-    <t>植物名称</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+  <si>
+    <t>植物英文</t>
   </si>
   <si>
     <t>植物类型</t>
@@ -35,93 +35,189 @@
     <t>等级</t>
   </si>
   <si>
+    <t>植物中文</t>
+  </si>
+  <si>
     <t>gourd</t>
   </si>
   <si>
+    <t>葫芦</t>
+  </si>
+  <si>
     <t>pepper</t>
   </si>
   <si>
+    <t>红辣椒</t>
+  </si>
+  <si>
     <t>peapod</t>
   </si>
   <si>
+    <t>豌豆荚</t>
+  </si>
+  <si>
     <t>strawberry</t>
   </si>
   <si>
+    <t>草莓</t>
+  </si>
+  <si>
     <t>eggplant</t>
   </si>
   <si>
+    <t>茄子</t>
+  </si>
+  <si>
     <t>coconut</t>
   </si>
   <si>
+    <t>椰子</t>
+  </si>
+  <si>
     <t>banana</t>
   </si>
   <si>
+    <t>香蕉</t>
+  </si>
+  <si>
     <t>pumpkin</t>
   </si>
   <si>
+    <t>南瓜</t>
+  </si>
+  <si>
     <t>potato</t>
   </si>
   <si>
+    <t>土豆</t>
+  </si>
+  <si>
     <t>durian</t>
   </si>
   <si>
+    <t>榴莲</t>
+  </si>
+  <si>
     <t>sunflower</t>
   </si>
   <si>
+    <t>向日葵</t>
+  </si>
+  <si>
     <t>pear</t>
   </si>
   <si>
+    <t>梨子</t>
+  </si>
+  <si>
     <t>cabbage</t>
   </si>
   <si>
+    <t>白菜</t>
+  </si>
+  <si>
     <t>tomato</t>
   </si>
   <si>
+    <t>西红柿</t>
+  </si>
+  <si>
     <t>pitaya</t>
   </si>
   <si>
+    <t>火龙果</t>
+  </si>
+  <si>
     <t>pineapple</t>
   </si>
   <si>
+    <t>菠萝</t>
+  </si>
+  <si>
     <t>cactus</t>
   </si>
   <si>
+    <t>仙人掌</t>
+  </si>
+  <si>
+    <t>grape</t>
+  </si>
+  <si>
+    <t>葡萄</t>
+  </si>
+  <si>
     <t>mangosteen</t>
   </si>
   <si>
+    <t>山竹</t>
+  </si>
+  <si>
     <t>yintao</t>
   </si>
   <si>
+    <t>殷桃</t>
+  </si>
+  <si>
     <t>corn</t>
   </si>
   <si>
+    <t>玉米</t>
+  </si>
+  <si>
     <t>greenpepper</t>
   </si>
   <si>
+    <t>青椒</t>
+  </si>
+  <si>
     <t>cucumber</t>
   </si>
   <si>
+    <t>黄瓜</t>
+  </si>
+  <si>
     <t>carrot</t>
   </si>
   <si>
+    <t>胡萝卜</t>
+  </si>
+  <si>
     <t>bun</t>
   </si>
   <si>
+    <t>包菜</t>
+  </si>
+  <si>
     <t>mushroom</t>
   </si>
   <si>
+    <t>蘑菇</t>
+  </si>
+  <si>
     <t>orange</t>
   </si>
   <si>
+    <t>橙子</t>
+  </si>
+  <si>
     <t>watermelon</t>
   </si>
   <si>
+    <t>西瓜</t>
+  </si>
+  <si>
     <t>apple</t>
   </si>
   <si>
+    <t>苹果</t>
+  </si>
+  <si>
     <t>cauliflower</t>
   </si>
   <si>
+    <t>花菜</t>
+  </si>
+  <si>
     <t>恶魔捕蝇草</t>
   </si>
   <si>
@@ -141,6 +237,9 @@
   </si>
   <si>
     <t>rsg</t>
+  </si>
+  <si>
+    <t>人生果</t>
   </si>
   <si>
     <t>蜻蜓仙花</t>
@@ -362,8 +461,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,9 +476,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,6 +492,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -411,72 +666,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -484,96 +673,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,145 +791,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,24 +1262,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="44.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="53.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="21.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1199,10 +1299,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1219,10 +1322,13 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1239,10 +1345,13 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1259,10 +1368,13 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1279,10 +1391,13 @@
       <c r="F5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1299,10 +1414,13 @@
       <c r="F6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1319,10 +1437,13 @@
       <c r="F7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1339,10 +1460,13 @@
       <c r="F8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1359,10 +1483,13 @@
       <c r="F9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1379,10 +1506,13 @@
       <c r="F10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1399,10 +1529,13 @@
       <c r="F11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1419,10 +1552,13 @@
       <c r="F12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -1439,10 +1575,13 @@
       <c r="F13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1459,10 +1598,13 @@
       <c r="F14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -1479,10 +1621,13 @@
       <c r="F15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -1499,10 +1644,13 @@
       <c r="F16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1519,10 +1667,13 @@
       <c r="F17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -1539,10 +1690,13 @@
       <c r="F18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -1559,10 +1713,13 @@
       <c r="F19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -1579,10 +1736,13 @@
       <c r="F20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -1599,10 +1759,13 @@
       <c r="F21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -1619,10 +1782,13 @@
       <c r="F22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -1639,10 +1805,13 @@
       <c r="F23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -1659,10 +1828,13 @@
       <c r="F24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -1679,10 +1851,13 @@
       <c r="F25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -1699,10 +1874,13 @@
       <c r="F26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -1719,10 +1897,13 @@
       <c r="F27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -1739,10 +1920,13 @@
       <c r="F28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -1759,10 +1943,13 @@
       <c r="F29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -1779,10 +1966,13 @@
       <c r="F30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
@@ -1799,10 +1989,13 @@
       <c r="F31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
@@ -1819,10 +2012,13 @@
       <c r="F32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
@@ -1839,10 +2035,13 @@
       <c r="F33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -1859,10 +2058,13 @@
       <c r="F34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -1879,10 +2081,13 @@
       <c r="F35" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
@@ -1899,10 +2104,13 @@
       <c r="F36" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -1919,10 +2127,13 @@
       <c r="F37" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
@@ -1939,10 +2150,13 @@
       <c r="F38" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
@@ -1959,10 +2173,13 @@
       <c r="F39" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
@@ -1979,10 +2196,13 @@
       <c r="F40" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
@@ -1998,6 +2218,9 @@
       </c>
       <c r="F41" s="1">
         <v>40</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +2234,7 @@
   <sheetPr/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -2024,24 +2247,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2058,7 +2281,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2075,7 +2298,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2092,7 +2315,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2109,7 +2332,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -2126,7 +2349,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -2143,7 +2366,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -2160,7 +2383,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -2177,7 +2400,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -2194,7 +2417,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -2211,7 +2434,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -2228,7 +2451,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -2245,7 +2468,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -2268,7 +2491,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
@@ -2291,7 +2514,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
@@ -2314,7 +2537,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>

--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26085" windowHeight="10215"/>
+    <workbookView windowWidth="26085" windowHeight="8760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>植物英文</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>编号</t>
+  </si>
+  <si>
+    <t>升级所需蜂蜜</t>
   </si>
   <si>
     <t>牛</t>
@@ -461,9 +464,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,8 +478,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,6 +495,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -504,18 +525,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -528,25 +579,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,30 +645,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -600,79 +657,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,10 +794,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,133 +806,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1264,8 +1267,8 @@
   <sheetPr/>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2232,20 +2235,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="26.625" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -2261,10 +2265,13 @@
       <c r="E1" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2278,10 +2285,13 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2295,10 +2305,13 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2312,10 +2325,13 @@
       <c r="E4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2329,10 +2345,13 @@
       <c r="E5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -2346,10 +2365,13 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -2363,10 +2385,13 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -2380,10 +2405,13 @@
       <c r="E8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -2397,10 +2425,13 @@
       <c r="E9" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -2414,10 +2445,13 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -2431,10 +2465,13 @@
       <c r="E11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -2448,10 +2485,13 @@
       <c r="E12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -2465,10 +2505,13 @@
       <c r="E13" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="F13">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -2482,16 +2525,14 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14">
+        <v>13000</v>
+      </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
@@ -2505,16 +2546,14 @@
       <c r="E15" s="1">
         <v>2</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15">
+        <v>14000</v>
+      </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
@@ -2528,16 +2567,14 @@
       <c r="E16" s="1">
         <v>3</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16">
+        <v>15000</v>
+      </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -2551,14 +2588,12 @@
       <c r="E17" s="1">
         <v>4</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17">
+        <v>16000</v>
+      </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2566,192 +2601,6 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26085" windowHeight="8760" activeTab="1"/>
+    <workbookView windowWidth="26085" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,21 +342,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -372,65 +357,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,6 +376,35 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,8 +431,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,6 +477,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -495,6 +495,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -520,162 +676,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,41 +689,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,26 +709,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,6 +736,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -794,10 +794,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,133 +806,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1267,8 +1267,8 @@
   <sheetPr/>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1320,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -2237,8 +2237,8 @@
   <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:N31"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -322,10 +322,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -342,45 +342,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -388,11 +349,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,7 +372,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,9 +392,72 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,13 +471,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,25 +479,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,25 +495,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,55 +609,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,90 +676,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,8 +692,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,35 +728,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -768,6 +739,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,6 +775,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -794,10 +794,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,133 +806,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1268,7 +1268,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1320,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>

--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>植物英文</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>植物中文</t>
+  </si>
+  <si>
+    <t>蜂蜜产量</t>
   </si>
   <si>
     <t>gourd</t>
@@ -322,10 +325,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -343,28 +346,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -372,31 +353,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,7 +376,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,7 +420,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,6 +428,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -455,9 +450,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,6 +468,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -480,7 +483,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,12 +498,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -513,7 +570,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,37 +636,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,13 +660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,91 +672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,45 +689,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -752,11 +716,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,6 +763,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -786,6 +780,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -794,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,133 +809,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1265,13 +1268,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="53.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
@@ -1280,10 +1283,11 @@
     <col min="5" max="5" width="17.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="17.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1305,10 +1309,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1326,12 +1333,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1349,12 +1359,15 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1372,12 +1385,15 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1395,12 +1411,15 @@
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1418,12 +1437,15 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1441,12 +1463,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1464,12 +1489,15 @@
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1487,12 +1515,15 @@
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1510,12 +1541,15 @@
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -1533,12 +1567,15 @@
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1556,12 +1593,15 @@
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -1579,12 +1619,15 @@
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>31</v>
+      </c>
+      <c r="H13" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1602,12 +1645,15 @@
         <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>33</v>
+      </c>
+      <c r="H14" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -1625,12 +1671,15 @@
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>35</v>
+      </c>
+      <c r="H15" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -1648,12 +1697,15 @@
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>37</v>
+      </c>
+      <c r="H16" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1671,12 +1723,15 @@
         <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>39</v>
+      </c>
+      <c r="H17" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -1694,12 +1749,15 @@
         <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -1717,12 +1775,15 @@
         <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="H19" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -1740,12 +1801,15 @@
         <v>19</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="H20" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -1763,12 +1827,15 @@
         <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>47</v>
+      </c>
+      <c r="H21" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -1786,12 +1853,15 @@
         <v>21</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>49</v>
+      </c>
+      <c r="H22" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -1809,12 +1879,15 @@
         <v>22</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>51</v>
+      </c>
+      <c r="H23" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -1832,12 +1905,15 @@
         <v>23</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>53</v>
+      </c>
+      <c r="H24" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -1855,12 +1931,15 @@
         <v>24</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>55</v>
+      </c>
+      <c r="H25" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -1878,12 +1957,15 @@
         <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>57</v>
+      </c>
+      <c r="H26" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -1901,12 +1983,15 @@
         <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="H27" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -1924,12 +2009,15 @@
         <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="H28" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -1947,12 +2035,15 @@
         <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>63</v>
+      </c>
+      <c r="H29" s="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -1970,12 +2061,15 @@
         <v>29</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>65</v>
+      </c>
+      <c r="H30" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
@@ -1993,12 +2087,15 @@
         <v>30</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="H31" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
@@ -2016,12 +2113,15 @@
         <v>31</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="H32" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
@@ -2039,12 +2139,15 @@
         <v>32</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>69</v>
+      </c>
+      <c r="H33" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -2062,12 +2165,15 @@
         <v>33</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>70</v>
+      </c>
+      <c r="H34" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -2085,12 +2191,15 @@
         <v>34</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>71</v>
+      </c>
+      <c r="H35" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
@@ -2108,12 +2217,15 @@
         <v>35</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>72</v>
+      </c>
+      <c r="H36" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -2131,12 +2243,15 @@
         <v>36</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>73</v>
+      </c>
+      <c r="H37" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
@@ -2154,12 +2269,15 @@
         <v>37</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>75</v>
+      </c>
+      <c r="H38" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
@@ -2177,12 +2295,15 @@
         <v>38</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>76</v>
+      </c>
+      <c r="H39" s="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
@@ -2200,12 +2321,15 @@
         <v>39</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>77</v>
+      </c>
+      <c r="H40" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
@@ -2223,7 +2347,10 @@
         <v>40</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="H41" s="1">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2251,27 +2378,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2291,7 +2418,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2311,7 +2438,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2331,7 +2458,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2351,7 +2478,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -2371,7 +2498,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -2391,7 +2518,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -2411,7 +2538,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -2431,7 +2558,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -2451,7 +2578,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -2471,7 +2598,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -2491,7 +2618,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -2511,7 +2638,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -2532,7 +2659,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
@@ -2553,7 +2680,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
@@ -2574,7 +2701,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>

--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
   <si>
     <t>植物英文</t>
   </si>
@@ -221,21 +221,39 @@
     <t>花菜</t>
   </si>
   <si>
+    <t>flytrap</t>
+  </si>
+  <si>
     <t>恶魔捕蝇草</t>
   </si>
   <si>
+    <t>tulips</t>
+  </si>
+  <si>
     <t>郁金香妖姬</t>
   </si>
   <si>
+    <t>lancome</t>
+  </si>
+  <si>
     <t>兰蔻仙草</t>
   </si>
   <si>
+    <t>paceh</t>
+  </si>
+  <si>
     <t>王母蟠桃</t>
   </si>
   <si>
+    <t>moon</t>
+  </si>
+  <si>
     <t>月亮仙草</t>
   </si>
   <si>
+    <t>bamboo</t>
+  </si>
+  <si>
     <t>千年仙竹</t>
   </si>
   <si>
@@ -245,10 +263,19 @@
     <t>人生果</t>
   </si>
   <si>
+    <t>dragonfly</t>
+  </si>
+  <si>
     <t>蜻蜓仙花</t>
   </si>
   <si>
+    <t>ganoderma</t>
+  </si>
+  <si>
     <t>千年灵芝</t>
+  </si>
+  <si>
+    <t>ginseng</t>
   </si>
   <si>
     <t>千年老参</t>
@@ -325,10 +352,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -346,7 +373,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,9 +464,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,84 +502,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,21 +515,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -498,73 +525,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,109 +699,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,6 +744,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -727,21 +789,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,26 +811,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -797,10 +824,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,133 +836,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1270,8 +1297,8 @@
   <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2113,7 +2140,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H32" s="1">
         <v>230</v>
@@ -2121,7 +2148,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
@@ -2139,7 +2166,7 @@
         <v>32</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H33" s="1">
         <v>231</v>
@@ -2147,7 +2174,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -2165,7 +2192,7 @@
         <v>33</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H34" s="1">
         <v>232</v>
@@ -2173,7 +2200,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -2191,7 +2218,7 @@
         <v>34</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H35" s="1">
         <v>233</v>
@@ -2199,7 +2226,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
@@ -2217,7 +2244,7 @@
         <v>35</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H36" s="1">
         <v>234</v>
@@ -2225,7 +2252,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
@@ -2243,7 +2270,7 @@
         <v>36</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H37" s="1">
         <v>235</v>
@@ -2251,7 +2278,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
@@ -2269,7 +2296,7 @@
         <v>37</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H38" s="1">
         <v>236</v>
@@ -2277,7 +2304,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B39" s="1">
         <v>2</v>
@@ -2295,7 +2322,7 @@
         <v>38</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H39" s="1">
         <v>237</v>
@@ -2303,7 +2330,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B40" s="1">
         <v>2</v>
@@ -2321,7 +2348,7 @@
         <v>39</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H40" s="1">
         <v>238</v>
@@ -2329,7 +2356,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
@@ -2347,7 +2374,7 @@
         <v>40</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H41" s="1">
         <v>239</v>
@@ -2378,27 +2405,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2418,7 +2445,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2438,7 +2465,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2458,7 +2485,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2478,7 +2505,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -2498,7 +2525,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -2518,7 +2545,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -2538,7 +2565,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -2558,7 +2585,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -2578,7 +2605,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -2598,7 +2625,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -2618,7 +2645,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -2638,7 +2665,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -2659,7 +2686,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
@@ -2680,7 +2707,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
@@ -2701,7 +2728,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>

--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26085" windowHeight="8760"/>
+    <workbookView windowWidth="26085" windowHeight="8760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169">
   <si>
     <t>植物英文</t>
   </si>
@@ -281,7 +281,7 @@
     <t>千年老参</t>
   </si>
   <si>
-    <t>动物名称</t>
+    <t>动物ui图片名称</t>
   </si>
   <si>
     <t>动物类型id</t>
@@ -299,40 +299,217 @@
     <t>升级所需蜂蜜</t>
   </si>
   <si>
+    <t>动物中文名称</t>
+  </si>
+  <si>
+    <t>cattle</t>
+  </si>
+  <si>
     <t>牛</t>
   </si>
   <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>鸡</t>
+  </si>
+  <si>
+    <t>chicken12</t>
+  </si>
+  <si>
+    <t>鸡2</t>
+  </si>
+  <si>
+    <t>duck</t>
+  </si>
+  <si>
+    <t>鸭</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
     <t>猪</t>
   </si>
   <si>
+    <t>sheep</t>
+  </si>
+  <si>
     <t>羊</t>
   </si>
   <si>
-    <t>狗</t>
-  </si>
-  <si>
-    <t>金鱼</t>
-  </si>
-  <si>
-    <t>带鱼</t>
-  </si>
-  <si>
-    <t>鲨鱼</t>
-  </si>
-  <si>
-    <t>白鲸</t>
-  </si>
-  <si>
-    <t>乌鸦</t>
-  </si>
-  <si>
-    <t>金丝雀</t>
-  </si>
-  <si>
-    <t>白鸽</t>
-  </si>
-  <si>
-    <t>大鹏</t>
+    <t>camel</t>
+  </si>
+  <si>
+    <t>骆驼</t>
+  </si>
+  <si>
+    <t>donkey</t>
+  </si>
+  <si>
+    <t>驴</t>
+  </si>
+  <si>
+    <t>elephant</t>
+  </si>
+  <si>
+    <t>大象</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>狐狸</t>
+  </si>
+  <si>
+    <t>giraffe</t>
+  </si>
+  <si>
+    <t>长颈鹿</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
+  <si>
+    <t>kangaroo</t>
+  </si>
+  <si>
+    <t>袋鼠</t>
+  </si>
+  <si>
+    <t>leopard</t>
+  </si>
+  <si>
+    <t>豹子</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>狮子</t>
+  </si>
+  <si>
+    <t>monkey</t>
+  </si>
+  <si>
+    <t>猴子</t>
+  </si>
+  <si>
+    <t>panda</t>
+  </si>
+  <si>
+    <t>熊猫</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>兔子</t>
+  </si>
+  <si>
+    <t>raccoon</t>
+  </si>
+  <si>
+    <t>浣熊</t>
+  </si>
+  <si>
+    <t>rhinoceros</t>
+  </si>
+  <si>
+    <t>犀牛</t>
+  </si>
+  <si>
+    <t>rhizomys</t>
+  </si>
+  <si>
+    <t>竹鼠</t>
+  </si>
+  <si>
+    <t>snail</t>
+  </si>
+  <si>
+    <t>蜗牛</t>
+  </si>
+  <si>
+    <t>fish1</t>
+  </si>
+  <si>
+    <t>鱼1</t>
+  </si>
+  <si>
+    <t>fish2</t>
+  </si>
+  <si>
+    <t>鱼2</t>
+  </si>
+  <si>
+    <t>fish3</t>
+  </si>
+  <si>
+    <t>鱼3</t>
+  </si>
+  <si>
+    <t>fish4</t>
+  </si>
+  <si>
+    <t>鱼4</t>
+  </si>
+  <si>
+    <t>fish5</t>
+  </si>
+  <si>
+    <t>鱼5</t>
+  </si>
+  <si>
+    <t>fish6</t>
+  </si>
+  <si>
+    <t>鱼6</t>
+  </si>
+  <si>
+    <t>fish7</t>
+  </si>
+  <si>
+    <t>鱼7</t>
+  </si>
+  <si>
+    <t>fish8</t>
+  </si>
+  <si>
+    <t>鱼8</t>
+  </si>
+  <si>
+    <t>frog</t>
+  </si>
+  <si>
+    <t>青蛙</t>
+  </si>
+  <si>
+    <t>bird1</t>
+  </si>
+  <si>
+    <t>粉鸟</t>
+  </si>
+  <si>
+    <t>bird2</t>
+  </si>
+  <si>
+    <t>胖粉鸟</t>
+  </si>
+  <si>
+    <t>bird3</t>
+  </si>
+  <si>
+    <t>蓝鸟</t>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <t>猫头鹰</t>
   </si>
   <si>
     <t>玄武</t>
@@ -352,10 +529,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -374,6 +551,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,29 +678,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -525,7 +702,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,18 +727,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,19 +756,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,19 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,13 +786,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,55 +870,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,6 +893,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -730,15 +931,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,21 +985,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -824,151 +1001,157 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1297,7 +1480,7 @@
   <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -1445,7 +1628,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1">
@@ -1601,7 +1784,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="1">
@@ -1627,7 +1810,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="1">
@@ -2389,10 +2572,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2401,9 +2584,10 @@
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -2419,13 +2603,16 @@
       <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2439,13 +2626,16 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="3">
+        <v>100</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2459,13 +2649,16 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="3">
+        <v>200</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2479,13 +2672,16 @@
       <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="3">
+        <v>300</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2499,16 +2695,19 @@
       <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>98</v>
+      <c r="F5" s="3">
+        <v>400</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>54</v>
@@ -2517,18 +2716,21 @@
         <v>104</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>500</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>55</v>
@@ -2537,18 +2739,21 @@
         <v>105</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3">
+        <v>600</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
         <v>56</v>
@@ -2557,18 +2762,21 @@
         <v>106</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>700</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>57</v>
@@ -2577,18 +2785,21 @@
         <v>107</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>800</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>58</v>
@@ -2597,18 +2808,21 @@
         <v>108</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3">
+        <v>900</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>59</v>
@@ -2617,18 +2831,21 @@
         <v>109</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
         <v>60</v>
@@ -2637,18 +2854,21 @@
         <v>110</v>
       </c>
       <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>61</v>
@@ -2657,18 +2877,21 @@
         <v>111</v>
       </c>
       <c r="E13" s="1">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>12000</v>
+        <v>12</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>62</v>
@@ -2677,19 +2900,21 @@
         <v>112</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>13000</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
         <v>63</v>
@@ -2698,19 +2923,21 @@
         <v>113</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>14000</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B16" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1">
         <v>64</v>
@@ -2719,19 +2946,21 @@
         <v>114</v>
       </c>
       <c r="E16" s="1">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>15000</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B17" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
         <v>65</v>
@@ -2740,21 +2969,535 @@
         <v>115</v>
       </c>
       <c r="E17" s="1">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>66</v>
+      </c>
+      <c r="D18" s="1">
+        <v>116</v>
+      </c>
+      <c r="E18" s="1">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>67</v>
+      </c>
+      <c r="D19" s="1">
+        <v>117</v>
+      </c>
+      <c r="E19" s="1">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1">
+        <v>118</v>
+      </c>
+      <c r="E20" s="1">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>69</v>
+      </c>
+      <c r="D21" s="1">
+        <v>119</v>
+      </c>
+      <c r="E21" s="1">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>70</v>
+      </c>
+      <c r="D22" s="1">
+        <v>120</v>
+      </c>
+      <c r="E22" s="1">
+        <v>21</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>71</v>
+      </c>
+      <c r="D23" s="1">
+        <v>121</v>
+      </c>
+      <c r="E23" s="1">
+        <v>22</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>72</v>
+      </c>
+      <c r="D24" s="1">
+        <v>122</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>73</v>
+      </c>
+      <c r="D25" s="1">
+        <v>123</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>74</v>
+      </c>
+      <c r="D26" s="1">
+        <v>124</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>75</v>
+      </c>
+      <c r="D27" s="1">
+        <v>125</v>
+      </c>
+      <c r="E27" s="1">
         <v>4</v>
       </c>
-      <c r="F17">
-        <v>16000</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F27" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>76</v>
+      </c>
+      <c r="D28" s="1">
+        <v>126</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>77</v>
+      </c>
+      <c r="D29" s="1">
+        <v>127</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>78</v>
+      </c>
+      <c r="D30" s="1">
+        <v>128</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>79</v>
+      </c>
+      <c r="D31" s="1">
+        <v>129</v>
+      </c>
+      <c r="E31" s="1">
+        <v>8</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>80</v>
+      </c>
+      <c r="D32" s="1">
+        <v>130</v>
+      </c>
+      <c r="E32" s="1">
+        <v>9</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>81</v>
+      </c>
+      <c r="D33" s="1">
+        <v>131</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>82</v>
+      </c>
+      <c r="D34" s="1">
+        <v>132</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>83</v>
+      </c>
+      <c r="D35" s="1">
+        <v>133</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>84</v>
+      </c>
+      <c r="D36" s="1">
+        <v>134</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>85</v>
+      </c>
+      <c r="D37" s="1">
+        <v>135</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>86</v>
+      </c>
+      <c r="D38" s="1">
+        <v>136</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>87</v>
+      </c>
+      <c r="D39" s="1">
+        <v>137</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>88</v>
+      </c>
+      <c r="D40" s="1">
+        <v>138</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="F40" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26085" windowHeight="8760" activeTab="1"/>
+    <workbookView windowWidth="26085" windowHeight="8715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
   <si>
     <t>植物英文</t>
   </si>
@@ -302,40 +302,106 @@
     <t>动物中文名称</t>
   </si>
   <si>
+    <t>snail</t>
+  </si>
+  <si>
+    <t>蜗牛</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>鸡</t>
+  </si>
+  <si>
+    <t>rhizomys</t>
+  </si>
+  <si>
+    <t>竹鼠</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>兔子</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>猪</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>羊</t>
+  </si>
+  <si>
     <t>cattle</t>
   </si>
   <si>
     <t>牛</t>
   </si>
   <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>鸡</t>
-  </si>
-  <si>
-    <t>chicken12</t>
-  </si>
-  <si>
-    <t>鸡2</t>
-  </si>
-  <si>
-    <t>duck</t>
-  </si>
-  <si>
-    <t>鸭</t>
-  </si>
-  <si>
-    <t>pig</t>
-  </si>
-  <si>
-    <t>猪</t>
-  </si>
-  <si>
-    <t>sheep</t>
-  </si>
-  <si>
-    <t>羊</t>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>狐狸</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
+  <si>
+    <t>donkey</t>
+  </si>
+  <si>
+    <t>驴</t>
+  </si>
+  <si>
+    <t>kangaroo</t>
+  </si>
+  <si>
+    <t>袋鼠</t>
+  </si>
+  <si>
+    <t>leopard</t>
+  </si>
+  <si>
+    <t>豹子</t>
+  </si>
+  <si>
+    <t>giraffe</t>
+  </si>
+  <si>
+    <t>长颈鹿</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>狮子</t>
+  </si>
+  <si>
+    <t>elephant</t>
+  </si>
+  <si>
+    <t>大象</t>
+  </si>
+  <si>
+    <t>monkey</t>
+  </si>
+  <si>
+    <t>猴子</t>
+  </si>
+  <si>
+    <t>raccoon</t>
+  </si>
+  <si>
+    <t>浣熊</t>
   </si>
   <si>
     <t>camel</t>
@@ -344,94 +410,16 @@
     <t>骆驼</t>
   </si>
   <si>
-    <t>donkey</t>
-  </si>
-  <si>
-    <t>驴</t>
-  </si>
-  <si>
-    <t>elephant</t>
-  </si>
-  <si>
-    <t>大象</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>狐狸</t>
-  </si>
-  <si>
-    <t>giraffe</t>
-  </si>
-  <si>
-    <t>长颈鹿</t>
-  </si>
-  <si>
-    <t>horse</t>
-  </si>
-  <si>
-    <t>马</t>
-  </si>
-  <si>
-    <t>kangaroo</t>
-  </si>
-  <si>
-    <t>袋鼠</t>
-  </si>
-  <si>
-    <t>leopard</t>
-  </si>
-  <si>
-    <t>豹子</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>狮子</t>
-  </si>
-  <si>
-    <t>monkey</t>
-  </si>
-  <si>
-    <t>猴子</t>
+    <t>rhinoceros</t>
+  </si>
+  <si>
+    <t>犀牛</t>
   </si>
   <si>
     <t>panda</t>
   </si>
   <si>
     <t>熊猫</t>
-  </si>
-  <si>
-    <t>rabbit</t>
-  </si>
-  <si>
-    <t>兔子</t>
-  </si>
-  <si>
-    <t>raccoon</t>
-  </si>
-  <si>
-    <t>浣熊</t>
-  </si>
-  <si>
-    <t>rhinoceros</t>
-  </si>
-  <si>
-    <t>犀牛</t>
-  </si>
-  <si>
-    <t>rhizomys</t>
-  </si>
-  <si>
-    <t>竹鼠</t>
-  </si>
-  <si>
-    <t>snail</t>
-  </si>
-  <si>
-    <t>蜗牛</t>
   </si>
   <si>
     <t>fish1</t>
@@ -550,76 +538,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,7 +554,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,14 +577,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,6 +605,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -686,6 +667,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -702,19 +690,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,55 +738,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +774,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,13 +798,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,19 +828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,13 +840,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,19 +870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,6 +881,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -915,37 +957,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,30 +976,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1001,10 +989,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1013,145 +1001,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1628,7 +1610,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1">
@@ -1784,7 +1766,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="1">
@@ -1810,7 +1792,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="1">
@@ -2572,10 +2554,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2603,10 +2585,10 @@
       <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2618,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -2626,10 +2608,10 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>100</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2641,18 +2623,18 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>200</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2664,18 +2646,18 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>300</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2687,18 +2669,18 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1">
-        <v>103</v>
+        <v>400</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>400</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2710,18 +2692,18 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1">
-        <v>104</v>
+        <v>500</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>500</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2733,18 +2715,18 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1">
-        <v>105</v>
+        <v>600</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>600</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2756,18 +2738,18 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1">
-        <v>106</v>
+        <v>700</v>
       </c>
       <c r="E8" s="1">
         <v>7</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>700</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2779,18 +2761,18 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1">
-        <v>107</v>
+        <v>800</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>800</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2802,18 +2784,18 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1">
-        <v>108</v>
+        <v>900</v>
       </c>
       <c r="E10" s="1">
         <v>9</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>900</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2825,18 +2807,18 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
-        <v>109</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>1000</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2848,18 +2830,18 @@
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D12" s="1">
-        <v>110</v>
+        <v>1100</v>
       </c>
       <c r="E12" s="1">
         <v>11</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>1100</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2871,18 +2853,18 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D13" s="1">
-        <v>111</v>
+        <v>1200</v>
       </c>
       <c r="E13" s="1">
         <v>12</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>1200</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2894,18 +2876,18 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="D14" s="1">
-        <v>112</v>
+        <v>1300</v>
       </c>
       <c r="E14" s="1">
         <v>13</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>1300</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2917,18 +2899,18 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="D15" s="1">
-        <v>113</v>
+        <v>1400</v>
       </c>
       <c r="E15" s="1">
         <v>14</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>1400</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2940,18 +2922,18 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="D16" s="1">
-        <v>114</v>
+        <v>1500</v>
       </c>
       <c r="E16" s="1">
         <v>15</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>1500</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2963,18 +2945,18 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="D17" s="1">
-        <v>115</v>
+        <v>1600</v>
       </c>
       <c r="E17" s="1">
         <v>16</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>1600</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2986,18 +2968,18 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="D18" s="1">
-        <v>116</v>
+        <v>1700</v>
       </c>
       <c r="E18" s="1">
         <v>17</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>1700</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3009,18 +2991,18 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="D19" s="1">
-        <v>117</v>
+        <v>1800</v>
       </c>
       <c r="E19" s="1">
         <v>18</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>1800</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3032,18 +3014,18 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="D20" s="1">
-        <v>118</v>
+        <v>1900</v>
       </c>
       <c r="E20" s="1">
         <v>19</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>1900</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3055,41 +3037,41 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="D21" s="1">
-        <v>119</v>
+        <v>2000</v>
       </c>
       <c r="E21" s="1">
         <v>20</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>2000</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E22" s="1">
-        <v>21</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2300</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3098,44 +3080,44 @@
         <v>137</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E23" s="1">
-        <v>22</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2400</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3147,18 +3129,18 @@
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2600</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3170,18 +3152,18 @@
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" s="1">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E26" s="1">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2700</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3193,18 +3175,18 @@
         <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E27" s="1">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2800</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3216,18 +3198,18 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D28" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E28" s="1">
-        <v>5</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2900</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3239,18 +3221,18 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E29" s="1">
-        <v>6</v>
-      </c>
-      <c r="F29" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3262,18 +3244,18 @@
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E30" s="1">
-        <v>7</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3100</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3282,21 +3264,21 @@
         <v>153</v>
       </c>
       <c r="B31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D31" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E31" s="1">
-        <v>8</v>
-      </c>
-      <c r="F31" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3200</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3305,19 +3287,19 @@
         <v>155</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D32" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E32" s="1">
-        <v>9</v>
-      </c>
-      <c r="F32" s="3">
-        <v>3100</v>
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3300</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>156</v>
@@ -3331,18 +3313,18 @@
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D33" s="1">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3400</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3354,18 +3336,18 @@
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D34" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E34" s="1">
-        <v>2</v>
-      </c>
-      <c r="F34" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3500</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3374,130 +3356,84 @@
         <v>161</v>
       </c>
       <c r="B35" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D35" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E35" s="1">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3">
-        <v>3400</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>162</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3600</v>
+      </c>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B36" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D36" s="1">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E36" s="1">
-        <v>4</v>
-      </c>
-      <c r="F36" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3700</v>
+      </c>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B37" s="1">
         <v>4</v>
       </c>
       <c r="C37" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D37" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>3600</v>
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3800</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B38" s="1">
         <v>4</v>
       </c>
       <c r="C38" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D38" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E38" s="1">
-        <v>2</v>
-      </c>
-      <c r="F38" s="3">
-        <v>3700</v>
+        <v>4</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3900</v>
       </c>
       <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="1">
-        <v>4</v>
-      </c>
-      <c r="C39" s="1">
-        <v>87</v>
-      </c>
-      <c r="D39" s="1">
-        <v>137</v>
-      </c>
-      <c r="E39" s="1">
-        <v>3</v>
-      </c>
-      <c r="F39" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B40" s="1">
-        <v>4</v>
-      </c>
-      <c r="C40" s="1">
-        <v>88</v>
-      </c>
-      <c r="D40" s="1">
-        <v>138</v>
-      </c>
-      <c r="E40" s="1">
-        <v>4</v>
-      </c>
-      <c r="F40" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171">
   <si>
     <t>植物英文</t>
   </si>
@@ -500,16 +500,34 @@
     <t>猫头鹰</t>
   </si>
   <si>
-    <t>玄武</t>
-  </si>
-  <si>
-    <t>白虎</t>
-  </si>
-  <si>
-    <t>朱雀</t>
-  </si>
-  <si>
-    <t>青龙</t>
+    <t>龙1</t>
+  </si>
+  <si>
+    <t>龙2</t>
+  </si>
+  <si>
+    <t>龙3</t>
+  </si>
+  <si>
+    <t>龙4</t>
+  </si>
+  <si>
+    <t>龙5</t>
+  </si>
+  <si>
+    <t>龙6</t>
+  </si>
+  <si>
+    <t>龙7</t>
+  </si>
+  <si>
+    <t>龙8</t>
+  </si>
+  <si>
+    <t>龙9</t>
+  </si>
+  <si>
+    <t>龙10</t>
   </si>
 </sst>
 </file>
@@ -538,7 +556,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,6 +618,14 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,49 +652,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -647,14 +673,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,31 +708,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,31 +774,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,19 +828,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,25 +864,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,6 +941,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -955,15 +982,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -989,10 +1007,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1001,73 +1019,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1076,62 +1094,62 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1139,6 +1157,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2554,10 +2575,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2623,7 +2644,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>200</v>
@@ -2646,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>300</v>
@@ -2669,7 +2690,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1">
         <v>400</v>
@@ -2692,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
@@ -2715,7 +2736,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>600</v>
@@ -2738,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>700</v>
@@ -2761,7 +2782,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
         <v>800</v>
@@ -2784,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>900</v>
@@ -2807,7 +2828,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1">
         <v>1000</v>
@@ -2830,7 +2851,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1">
         <v>1100</v>
@@ -2853,7 +2874,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1">
         <v>1200</v>
@@ -2876,7 +2897,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1">
         <v>1300</v>
@@ -2899,7 +2920,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1">
         <v>1400</v>
@@ -2922,7 +2943,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1">
         <v>1500</v>
@@ -2945,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1">
         <v>1600</v>
@@ -2968,7 +2989,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1">
         <v>1700</v>
@@ -2991,7 +3012,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1">
         <v>1800</v>
@@ -3014,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>190</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1">
         <v>1900</v>
@@ -3037,7 +3058,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1">
         <v>2000</v>
@@ -3060,10 +3081,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1">
-        <v>122</v>
+        <v>2001</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -3083,10 +3104,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1">
-        <v>123</v>
+        <v>2002</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -3106,10 +3127,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1">
-        <v>124</v>
+        <v>2003</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -3129,10 +3150,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="1">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1">
-        <v>125</v>
+        <v>2004</v>
       </c>
       <c r="E25" s="1">
         <v>4</v>
@@ -3152,10 +3173,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1">
-        <v>126</v>
+        <v>2005</v>
       </c>
       <c r="E26" s="1">
         <v>5</v>
@@ -3175,10 +3196,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="D27" s="1">
-        <v>127</v>
+        <v>2006</v>
       </c>
       <c r="E27" s="1">
         <v>6</v>
@@ -3198,10 +3219,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="D28" s="1">
-        <v>128</v>
+        <v>2007</v>
       </c>
       <c r="E28" s="1">
         <v>7</v>
@@ -3221,10 +3242,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="D29" s="1">
-        <v>129</v>
+        <v>2008</v>
       </c>
       <c r="E29" s="1">
         <v>8</v>
@@ -3244,10 +3265,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D30" s="1">
-        <v>130</v>
+        <v>2009</v>
       </c>
       <c r="E30" s="1">
         <v>9</v>
@@ -3267,10 +3288,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="D31" s="1">
-        <v>131</v>
+        <v>2010</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -3290,10 +3311,10 @@
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="D32" s="1">
-        <v>132</v>
+        <v>2011</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
@@ -3313,10 +3334,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D33" s="1">
-        <v>133</v>
+        <v>2012</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
@@ -3336,10 +3357,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D34" s="1">
-        <v>134</v>
+        <v>2013</v>
       </c>
       <c r="E34" s="1">
         <v>4</v>
@@ -3352,17 +3373,17 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>161</v>
+      <c r="A35" s="1">
+        <v>0</v>
       </c>
       <c r="B35" s="1">
         <v>4</v>
       </c>
       <c r="C35" s="1">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D35" s="1">
-        <v>135</v>
+        <v>2014</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -3370,20 +3391,22 @@
       <c r="F35" s="1">
         <v>3600</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>162</v>
+      <c r="A36" s="1">
+        <v>1</v>
       </c>
       <c r="B36" s="1">
         <v>4</v>
       </c>
       <c r="C36" s="1">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="D36" s="1">
-        <v>136</v>
+        <v>2015</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
@@ -3391,20 +3414,22 @@
       <c r="F36" s="1">
         <v>3700</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>163</v>
+      <c r="A37" s="1">
+        <v>2</v>
       </c>
       <c r="B37" s="1">
         <v>4</v>
       </c>
       <c r="C37" s="1">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="D37" s="1">
-        <v>137</v>
+        <v>2016</v>
       </c>
       <c r="E37" s="1">
         <v>3</v>
@@ -3412,20 +3437,22 @@
       <c r="F37" s="1">
         <v>3800</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>164</v>
+      <c r="A38" s="1">
+        <v>3</v>
       </c>
       <c r="B38" s="1">
         <v>4</v>
       </c>
       <c r="C38" s="1">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D38" s="1">
-        <v>138</v>
+        <v>2017</v>
       </c>
       <c r="E38" s="1">
         <v>4</v>
@@ -3433,7 +3460,147 @@
       <c r="F38" s="1">
         <v>3900</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5</v>
+      </c>
+      <c r="F39" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>48</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E40" s="1">
+        <v>6</v>
+      </c>
+      <c r="F40" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>49</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E41" s="1">
+        <v>7</v>
+      </c>
+      <c r="F41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>50</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E42" s="1">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>51</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E43" s="1">
+        <v>9</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1">
+        <v>52</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E44" s="1">
+        <v>10</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/conf/shop_data.xlsx
+++ b/conf/shop_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26085" windowHeight="8715" activeTab="1"/>
+    <workbookView windowWidth="26085" windowHeight="8715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,9 +536,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -553,6 +553,13 @@
       <color rgb="FF191F25"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -572,13 +579,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,6 +708,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -721,6 +733,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,6 +781,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,36 +889,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,149 +1007,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1157,9 +1157,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1483,8 +1480,8 @@
   <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1540,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1566,7 +1563,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -1592,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -1618,7 +1615,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -1644,7 +1641,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -1670,7 +1667,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="1">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -1696,7 +1693,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="1">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -1722,7 +1719,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="1">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
@@ -1748,7 +1745,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="1">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="F10" s="1">
         <v>9</v>
@@ -1774,7 +1771,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="1">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="F11" s="1">
         <v>10</v>
@@ -1800,7 +1797,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F12" s="1">
         <v>11</v>
@@ -1826,7 +1823,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="1">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="F13" s="1">
         <v>12</v>
@@ -1852,7 +1849,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="1">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="F14" s="1">
         <v>13</v>
@@ -1878,7 +1875,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="1">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="F15" s="1">
         <v>14</v>
@@ -1904,7 +1901,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="1">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="F16" s="1">
         <v>15</v>
@@ -1930,7 +1927,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="1">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="F17" s="1">
         <v>16</v>
@@ -1956,7 +1953,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="1">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="F18" s="1">
         <v>17</v>
@@ -1982,7 +1979,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="1">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="F19" s="1">
         <v>18</v>
@@ -2008,7 +2005,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="1">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c r="F20" s="1">
         <v>19</v>
@@ -2034,7 +2031,7 @@
         <v>21</v>
       </c>
       <c r="E21" s="1">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="F21" s="1">
         <v>20</v>
@@ -2060,7 +2057,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="1">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="F22" s="1">
         <v>21</v>
@@ -2086,7 +2083,7 @@
         <v>23</v>
       </c>
       <c r="E23" s="1">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="F23" s="1">
         <v>22</v>
@@ -2112,7 +2109,7 @@
         <v>24</v>
       </c>
       <c r="E24" s="1">
-        <v>32</v>
+        <v>320</v>
       </c>
       <c r="F24" s="1">
         <v>23</v>
@@ -2138,7 +2135,7 @@
         <v>25</v>
       </c>
       <c r="E25" s="1">
-        <v>33</v>
+        <v>330</v>
       </c>
       <c r="F25" s="1">
         <v>24</v>
@@ -2164,7 +2161,7 @@
         <v>26</v>
       </c>
       <c r="E26" s="1">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="F26" s="1">
         <v>25</v>
@@ -2190,7 +2187,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="1">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="F27" s="1">
         <v>26</v>
@@ -2216,7 +2213,7 @@
         <v>28</v>
       </c>
       <c r="E28" s="1">
-        <v>36</v>
+        <v>360</v>
       </c>
       <c r="F28" s="1">
         <v>27</v>
@@ -2242,7 +2239,7 @@
         <v>29</v>
       </c>
       <c r="E29" s="1">
-        <v>37</v>
+        <v>370</v>
       </c>
       <c r="F29" s="1">
         <v>28</v>
@@ -2268,7 +2265,7 @@
         <v>30</v>
       </c>
       <c r="E30" s="1">
-        <v>38</v>
+        <v>380</v>
       </c>
       <c r="F30" s="1">
         <v>29</v>
@@ -2294,7 +2291,7 @@
         <v>31</v>
       </c>
       <c r="E31" s="1">
-        <v>39</v>
+        <v>390</v>
       </c>
       <c r="F31" s="1">
         <v>30</v>
@@ -2320,7 +2317,7 @@
         <v>50</v>
       </c>
       <c r="E32" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F32" s="1">
         <v>31</v>
@@ -2346,7 +2343,7 @@
         <v>51</v>
       </c>
       <c r="E33" s="1">
-        <v>51</v>
+        <v>510</v>
       </c>
       <c r="F33" s="1">
         <v>32</v>
@@ -2372,7 +2369,7 @@
         <v>52</v>
       </c>
       <c r="E34" s="1">
-        <v>52</v>
+        <v>520</v>
       </c>
       <c r="F34" s="1">
         <v>33</v>
@@ -2398,7 +2395,7 @@
         <v>53</v>
       </c>
       <c r="E35" s="1">
-        <v>53</v>
+        <v>530</v>
       </c>
       <c r="F35" s="1">
         <v>34</v>
@@ -2424,7 +2421,7 @@
         <v>54</v>
       </c>
       <c r="E36" s="1">
-        <v>54</v>
+        <v>540</v>
       </c>
       <c r="F36" s="1">
         <v>35</v>
@@ -2450,7 +2447,7 @@
         <v>55</v>
       </c>
       <c r="E37" s="1">
-        <v>55</v>
+        <v>550</v>
       </c>
       <c r="F37" s="1">
         <v>36</v>
@@ -2476,7 +2473,7 @@
         <v>56</v>
       </c>
       <c r="E38" s="1">
-        <v>56</v>
+        <v>560</v>
       </c>
       <c r="F38" s="1">
         <v>37</v>
@@ -2502,7 +2499,7 @@
         <v>57</v>
       </c>
       <c r="E39" s="1">
-        <v>57</v>
+        <v>570</v>
       </c>
       <c r="F39" s="1">
         <v>38</v>
@@ -2528,7 +2525,7 @@
         <v>58</v>
       </c>
       <c r="E40" s="1">
-        <v>58</v>
+        <v>580</v>
       </c>
       <c r="F40" s="1">
         <v>39</v>
@@ -2554,7 +2551,7 @@
         <v>59</v>
       </c>
       <c r="E41" s="1">
-        <v>59</v>
+        <v>590</v>
       </c>
       <c r="F41" s="1">
         <v>40</v>
@@ -2577,8 +2574,8 @@
   <sheetPr/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3480,7 +3477,7 @@
       <c r="E39" s="1">
         <v>5</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="1">
         <v>4000</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -3503,7 +3500,7 @@
       <c r="E40" s="1">
         <v>6</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="1">
         <v>4100</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -3526,7 +3523,7 @@
       <c r="E41" s="1">
         <v>7</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="1">
         <v>4200</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -3549,7 +3546,7 @@
       <c r="E42" s="1">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="1">
         <v>4300</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -3572,7 +3569,7 @@
       <c r="E43" s="1">
         <v>9</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="1">
         <v>4400</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -3595,7 +3592,7 @@
       <c r="E44" s="1">
         <v>10</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="1">
         <v>4500</v>
       </c>
       <c r="G44" s="1" t="s">
